--- a/Phân tích/Yêu cầu/Yêu cầu tiến hóa.xlsx
+++ b/Phân tích/Yêu cầu/Yêu cầu tiến hóa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\Yêu cầu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F00FE6-6F6C-44D2-94C3-3B37FD624B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2375F0BA-859C-4F2B-A475-55EEFF128A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F4E7AD5E-6F19-41A6-94D9-4E1DE31F9B9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4E7AD5E-6F19-41A6-94D9-4E1DE31F9B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,9 +127,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri "/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,30 +154,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,399 +519,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38329E6-A122-4E61-A4FC-4BEED18E0F6C}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" customWidth="1"/>
-    <col min="8" max="8" width="46" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D3" s="7"/>
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="7"/>
+      <c r="F4" s="7">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="E5" s="1">
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="F5" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="7">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="7">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="7">
         <v>6</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1">
+      <c r="D9" s="7"/>
+      <c r="F9" s="7">
         <v>7</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="1">
+      <c r="D10" s="7"/>
+      <c r="F10" s="7">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1">
+      <c r="D11" s="7"/>
+      <c r="F11" s="7">
         <v>9</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="1">
+      <c r="D12" s="7"/>
+      <c r="F12" s="7">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="5"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="5"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
